--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H2">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I2">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J2">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.35175266666666</v>
+        <v>4.364279333333333</v>
       </c>
       <c r="N2">
-        <v>37.05525799999999</v>
+        <v>13.092838</v>
       </c>
       <c r="O2">
-        <v>0.3597540268505798</v>
+        <v>0.1623236474417427</v>
       </c>
       <c r="P2">
-        <v>0.3724451376201082</v>
+        <v>0.1693585125158563</v>
       </c>
       <c r="Q2">
-        <v>9.099268568225554</v>
+        <v>2.041979381116889</v>
       </c>
       <c r="R2">
-        <v>81.89341711402999</v>
+        <v>18.377814430052</v>
       </c>
       <c r="S2">
-        <v>0.03264517824745798</v>
+        <v>0.00629507842105531</v>
       </c>
       <c r="T2">
-        <v>0.03525462281729171</v>
+        <v>0.006628131509021062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H3">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I3">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J3">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>26.435724</v>
       </c>
       <c r="O3">
-        <v>0.2566534056168364</v>
+        <v>0.327747364050729</v>
       </c>
       <c r="P3">
-        <v>0.2657074162934502</v>
+        <v>0.341951446578635</v>
       </c>
       <c r="Q3">
-        <v>6.491541698926667</v>
+        <v>4.122956637277333</v>
       </c>
       <c r="R3">
-        <v>58.42387529034</v>
+        <v>37.106609735496</v>
       </c>
       <c r="S3">
-        <v>0.02328951324750196</v>
+        <v>0.01271038072092345</v>
       </c>
       <c r="T3">
-        <v>0.02515112642103386</v>
+        <v>0.01338284756965482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H4">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I4">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J4">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.158013666666666</v>
+        <v>5.303883333333334</v>
       </c>
       <c r="N4">
-        <v>12.474041</v>
+        <v>15.91165</v>
       </c>
       <c r="O4">
-        <v>0.1211052553148931</v>
+        <v>0.1972709862305183</v>
       </c>
       <c r="P4">
-        <v>0.1253775082857033</v>
+        <v>0.205820416908307</v>
       </c>
       <c r="Q4">
-        <v>3.063118577937222</v>
+        <v>2.481605685455556</v>
       </c>
       <c r="R4">
-        <v>27.568067201435</v>
+        <v>22.3344511691</v>
       </c>
       <c r="S4">
-        <v>0.0109894604407045</v>
+        <v>0.007650372253776054</v>
       </c>
       <c r="T4">
-        <v>0.01186788688564609</v>
+        <v>0.008055129737763119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H5">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I5">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J5">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.509793</v>
+        <v>3.3504315</v>
       </c>
       <c r="N5">
-        <v>7.019585999999999</v>
+        <v>6.700863</v>
       </c>
       <c r="O5">
-        <v>0.1022253439845415</v>
+        <v>0.1246149066192622</v>
       </c>
       <c r="P5">
-        <v>0.07055437783771969</v>
+        <v>0.08667702069272822</v>
       </c>
       <c r="Q5">
-        <v>2.585588457585</v>
+        <v>1.567615525567</v>
       </c>
       <c r="R5">
-        <v>15.51353074551</v>
+        <v>9.405693153402</v>
       </c>
       <c r="S5">
-        <v>0.00927623967130497</v>
+        <v>0.004832694570162858</v>
       </c>
       <c r="T5">
-        <v>0.006678481546762983</v>
+        <v>0.003392251640777454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H6">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I6">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J6">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.502415666666667</v>
+        <v>5.055779666666667</v>
       </c>
       <c r="N6">
-        <v>16.507247</v>
+        <v>15.167339</v>
       </c>
       <c r="O6">
-        <v>0.1602619682331494</v>
+        <v>0.1880430956577478</v>
       </c>
       <c r="P6">
-        <v>0.1659155599630185</v>
+        <v>0.1961926033044734</v>
       </c>
       <c r="Q6">
-        <v>4.053510402627222</v>
+        <v>2.365521784078445</v>
       </c>
       <c r="R6">
-        <v>36.481593623645</v>
+        <v>21.289696056706</v>
       </c>
       <c r="S6">
-        <v>0.01454266006432383</v>
+        <v>0.007292505142409205</v>
       </c>
       <c r="T6">
-        <v>0.01570510632355792</v>
+        <v>0.007678328986725721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.45002</v>
       </c>
       <c r="I7">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J7">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.35175266666666</v>
+        <v>4.364279333333333</v>
       </c>
       <c r="N7">
-        <v>37.05525799999999</v>
+        <v>13.092838</v>
       </c>
       <c r="O7">
-        <v>0.3597540268505798</v>
+        <v>0.1623236474417427</v>
       </c>
       <c r="P7">
-        <v>0.3724451376201082</v>
+        <v>0.1693585125158563</v>
       </c>
       <c r="Q7">
-        <v>1.852845245017777</v>
+        <v>0.6546709951955555</v>
       </c>
       <c r="R7">
-        <v>16.67560720516</v>
+        <v>5.89203895676</v>
       </c>
       <c r="S7">
-        <v>0.006647398396369759</v>
+        <v>0.002018240386194397</v>
       </c>
       <c r="T7">
-        <v>0.007178748463367146</v>
+        <v>0.0021250192295891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.45002</v>
       </c>
       <c r="I8">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J8">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>26.435724</v>
       </c>
       <c r="O8">
-        <v>0.2566534056168364</v>
+        <v>0.327747364050729</v>
       </c>
       <c r="P8">
-        <v>0.2657074162934502</v>
+        <v>0.341951446578635</v>
       </c>
       <c r="Q8">
         <v>1.321844946053333</v>
@@ -948,10 +948,10 @@
         <v>11.89660451448</v>
       </c>
       <c r="S8">
-        <v>0.004742344239634591</v>
+        <v>0.00407502527833068</v>
       </c>
       <c r="T8">
-        <v>0.005121416589327162</v>
+        <v>0.004290622235462631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.45002</v>
       </c>
       <c r="I9">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J9">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.158013666666666</v>
+        <v>5.303883333333334</v>
       </c>
       <c r="N9">
-        <v>12.474041</v>
+        <v>15.91165</v>
       </c>
       <c r="O9">
-        <v>0.1211052553148931</v>
+        <v>0.1972709862305183</v>
       </c>
       <c r="P9">
-        <v>0.1253775082857033</v>
+        <v>0.205820416908307</v>
       </c>
       <c r="Q9">
-        <v>0.623729770091111</v>
+        <v>0.7956178592222223</v>
       </c>
       <c r="R9">
-        <v>5.613567930819999</v>
+        <v>7.160560733000001</v>
       </c>
       <c r="S9">
-        <v>0.002237736953272613</v>
+        <v>0.002452755822762803</v>
       </c>
       <c r="T9">
-        <v>0.002416607183270153</v>
+        <v>0.002582523531146678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.45002</v>
       </c>
       <c r="I10">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J10">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.509793</v>
+        <v>3.3504315</v>
       </c>
       <c r="N10">
-        <v>7.019585999999999</v>
+        <v>6.700863</v>
       </c>
       <c r="O10">
-        <v>0.1022253439845415</v>
+        <v>0.1246149066192622</v>
       </c>
       <c r="P10">
-        <v>0.07055437783771969</v>
+        <v>0.08667702069272822</v>
       </c>
       <c r="Q10">
-        <v>0.5264923486199999</v>
+        <v>0.50258706121</v>
       </c>
       <c r="R10">
-        <v>3.15895409172</v>
+        <v>3.01552236726</v>
       </c>
       <c r="S10">
-        <v>0.001888881115855931</v>
+        <v>0.001549391239197615</v>
       </c>
       <c r="T10">
-        <v>0.001359910709863996</v>
+        <v>0.001087576484933374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.45002</v>
       </c>
       <c r="I11">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J11">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.502415666666667</v>
+        <v>5.055779666666667</v>
       </c>
       <c r="N11">
-        <v>16.507247</v>
+        <v>15.167339</v>
       </c>
       <c r="O11">
-        <v>0.1602619682331494</v>
+        <v>0.1880430956577478</v>
       </c>
       <c r="P11">
-        <v>0.1659155599630185</v>
+        <v>0.1961926033044734</v>
       </c>
       <c r="Q11">
-        <v>0.825399032771111</v>
+        <v>0.7584006551977778</v>
       </c>
       <c r="R11">
-        <v>7.428591294939999</v>
+        <v>6.82560589678</v>
       </c>
       <c r="S11">
-        <v>0.00296125983622296</v>
+        <v>0.002338021452713411</v>
       </c>
       <c r="T11">
-        <v>0.003197963809499638</v>
+        <v>0.002461718921191625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H12">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I12">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J12">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.35175266666666</v>
+        <v>4.364279333333333</v>
       </c>
       <c r="N12">
-        <v>37.05525799999999</v>
+        <v>13.092838</v>
       </c>
       <c r="O12">
-        <v>0.3597540268505798</v>
+        <v>0.1623236474417427</v>
       </c>
       <c r="P12">
-        <v>0.3724451376201082</v>
+        <v>0.1693585125158563</v>
       </c>
       <c r="Q12">
-        <v>39.62793045242399</v>
+        <v>26.06953234362156</v>
       </c>
       <c r="R12">
-        <v>356.6513740718159</v>
+        <v>234.625791092594</v>
       </c>
       <c r="S12">
-        <v>0.1421719606908499</v>
+        <v>0.08036797629835687</v>
       </c>
       <c r="T12">
-        <v>0.1535362683994849</v>
+        <v>0.08461999682763233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H13">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I13">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J13">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>26.435724</v>
       </c>
       <c r="O13">
-        <v>0.2566534056168364</v>
+        <v>0.327747364050729</v>
       </c>
       <c r="P13">
-        <v>0.2657074162934502</v>
+        <v>0.341951446578635</v>
       </c>
       <c r="Q13">
-        <v>28.271103445872</v>
+        <v>52.63694256700134</v>
       </c>
       <c r="R13">
-        <v>254.439931012848</v>
+        <v>473.732483103012</v>
       </c>
       <c r="S13">
-        <v>0.1014274064253488</v>
+        <v>0.1622708262228483</v>
       </c>
       <c r="T13">
-        <v>0.1095348577899176</v>
+        <v>0.1708560726876911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H14">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I14">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J14">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.158013666666666</v>
+        <v>5.303883333333334</v>
       </c>
       <c r="N14">
-        <v>12.474041</v>
+        <v>15.91165</v>
       </c>
       <c r="O14">
-        <v>0.1211052553148931</v>
+        <v>0.1972709862305183</v>
       </c>
       <c r="P14">
-        <v>0.1253775082857033</v>
+        <v>0.205820416908307</v>
       </c>
       <c r="Q14">
-        <v>13.340088718548</v>
+        <v>31.68215128877223</v>
       </c>
       <c r="R14">
-        <v>120.060798466932</v>
+        <v>285.1393615989501</v>
       </c>
       <c r="S14">
-        <v>0.04785984398511137</v>
+        <v>0.09767073495202112</v>
       </c>
       <c r="T14">
-        <v>0.05168545060466667</v>
+        <v>0.1028381908125951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H15">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I15">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J15">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.509793</v>
+        <v>3.3504315</v>
       </c>
       <c r="N15">
-        <v>7.019585999999999</v>
+        <v>6.700863</v>
       </c>
       <c r="O15">
-        <v>0.1022253439845415</v>
+        <v>0.1246149066192622</v>
       </c>
       <c r="P15">
-        <v>0.07055437783771969</v>
+        <v>0.08667702069272822</v>
       </c>
       <c r="Q15">
-        <v>11.260412725212</v>
+        <v>20.0134262001115</v>
       </c>
       <c r="R15">
-        <v>67.56247635127198</v>
+        <v>120.080557200669</v>
       </c>
       <c r="S15">
-        <v>0.04039865158372558</v>
+        <v>0.06169802132614829</v>
       </c>
       <c r="T15">
-        <v>0.02908523913527378</v>
+        <v>0.0433081816029801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H16">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I16">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J16">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.502415666666667</v>
+        <v>5.055779666666667</v>
       </c>
       <c r="N16">
-        <v>16.507247</v>
+        <v>15.167339</v>
       </c>
       <c r="O16">
-        <v>0.1602619682331494</v>
+        <v>0.1880430956577478</v>
       </c>
       <c r="P16">
-        <v>0.1659155599630185</v>
+        <v>0.1961926033044734</v>
       </c>
       <c r="Q16">
-        <v>17.653312144716</v>
+        <v>30.20013190625079</v>
       </c>
       <c r="R16">
-        <v>158.879809302444</v>
+        <v>271.801187156257</v>
       </c>
       <c r="S16">
-        <v>0.06333426882625268</v>
+        <v>0.09310191887054159</v>
       </c>
       <c r="T16">
-        <v>0.06839680095949116</v>
+        <v>0.09802765283306981</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H17">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I17">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J17">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.35175266666666</v>
+        <v>4.364279333333333</v>
       </c>
       <c r="N17">
-        <v>37.05525799999999</v>
+        <v>13.092838</v>
       </c>
       <c r="O17">
-        <v>0.3597540268505798</v>
+        <v>0.1623236474417427</v>
       </c>
       <c r="P17">
-        <v>0.3724451376201082</v>
+        <v>0.1693585125158563</v>
       </c>
       <c r="Q17">
-        <v>12.439431582971</v>
+        <v>1.435496576180333</v>
       </c>
       <c r="R17">
-        <v>74.63658949782599</v>
+        <v>8.612979457082</v>
       </c>
       <c r="S17">
-        <v>0.04462858286667075</v>
+        <v>0.004425394107196578</v>
       </c>
       <c r="T17">
-        <v>0.03213060223694218</v>
+        <v>0.003106351995408346</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H18">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I18">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J18">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>26.435724</v>
       </c>
       <c r="O18">
-        <v>0.2566534056168364</v>
+        <v>0.327747364050729</v>
       </c>
       <c r="P18">
-        <v>0.2657074162934502</v>
+        <v>0.341951446578635</v>
       </c>
       <c r="Q18">
-        <v>8.874459328938002</v>
+        <v>2.898408373406</v>
       </c>
       <c r="R18">
-        <v>53.24675597362801</v>
+        <v>17.390450240436</v>
       </c>
       <c r="S18">
-        <v>0.03183863675094199</v>
+        <v>0.008935304722251599</v>
       </c>
       <c r="T18">
-        <v>0.0229224077373739</v>
+        <v>0.006272029333706282</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H19">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I19">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J19">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.158013666666666</v>
+        <v>5.303883333333334</v>
       </c>
       <c r="N19">
-        <v>12.474041</v>
+        <v>15.91165</v>
       </c>
       <c r="O19">
-        <v>0.1211052553148931</v>
+        <v>0.1972709862305183</v>
       </c>
       <c r="P19">
-        <v>0.1253775082857033</v>
+        <v>0.205820416908307</v>
       </c>
       <c r="Q19">
-        <v>4.1875293266795</v>
+        <v>1.744550654058334</v>
       </c>
       <c r="R19">
-        <v>25.125175960077</v>
+        <v>10.46730392435</v>
       </c>
       <c r="S19">
-        <v>0.01502347581686649</v>
+        <v>0.005378155763156502</v>
       </c>
       <c r="T19">
-        <v>0.01081623691996176</v>
+        <v>0.003775131543500287</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H20">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I20">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J20">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.509793</v>
+        <v>3.3504315</v>
       </c>
       <c r="N20">
-        <v>7.019585999999999</v>
+        <v>6.700863</v>
       </c>
       <c r="O20">
-        <v>0.1022253439845415</v>
+        <v>0.1246149066192622</v>
       </c>
       <c r="P20">
-        <v>0.07055437783771969</v>
+        <v>0.08667702069272822</v>
       </c>
       <c r="Q20">
-        <v>3.5347072656105</v>
+        <v>1.10202225376425</v>
       </c>
       <c r="R20">
-        <v>14.138829062442</v>
+        <v>4.408089015057</v>
       </c>
       <c r="S20">
-        <v>0.01268136530680971</v>
+        <v>0.003397348951388338</v>
       </c>
       <c r="T20">
-        <v>0.006086680752135311</v>
+        <v>0.001589818735327509</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H21">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I21">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J21">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.502415666666667</v>
+        <v>5.055779666666667</v>
       </c>
       <c r="N21">
-        <v>16.507247</v>
+        <v>15.167339</v>
       </c>
       <c r="O21">
-        <v>0.1602619682331494</v>
+        <v>0.1880430956577478</v>
       </c>
       <c r="P21">
-        <v>0.1659155599630185</v>
+        <v>0.1961926033044734</v>
       </c>
       <c r="Q21">
-        <v>5.541474564276501</v>
+        <v>1.662944520070167</v>
       </c>
       <c r="R21">
-        <v>33.248847385659</v>
+        <v>9.977667120421</v>
       </c>
       <c r="S21">
-        <v>0.01988098532845466</v>
+        <v>0.005126577800202894</v>
       </c>
       <c r="T21">
-        <v>0.01431342853918214</v>
+        <v>0.003598539428020481</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H22">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I22">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J22">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.35175266666666</v>
+        <v>4.364279333333333</v>
       </c>
       <c r="N22">
-        <v>37.05525799999999</v>
+        <v>13.092838</v>
       </c>
       <c r="O22">
-        <v>0.3597540268505798</v>
+        <v>0.1623236474417427</v>
       </c>
       <c r="P22">
-        <v>0.3724451376201082</v>
+        <v>0.1693585125158563</v>
       </c>
       <c r="Q22">
-        <v>37.25562401450777</v>
+        <v>22.452397265518</v>
       </c>
       <c r="R22">
-        <v>335.3006161305699</v>
+        <v>202.071575389662</v>
       </c>
       <c r="S22">
-        <v>0.1336609066492315</v>
+        <v>0.06921695822893958</v>
       </c>
       <c r="T22">
-        <v>0.1443448957030223</v>
+        <v>0.07287901295420547</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H23">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I23">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J23">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>26.435724</v>
       </c>
       <c r="O23">
-        <v>0.2566534056168364</v>
+        <v>0.327747364050729</v>
       </c>
       <c r="P23">
-        <v>0.2657074162934502</v>
+        <v>0.341951446578635</v>
       </c>
       <c r="Q23">
-        <v>26.57866783427334</v>
+        <v>45.333592094364</v>
       </c>
       <c r="R23">
-        <v>239.20801050846</v>
+        <v>408.002328849276</v>
       </c>
       <c r="S23">
-        <v>0.09535550495340904</v>
+        <v>0.139755827106375</v>
       </c>
       <c r="T23">
-        <v>0.1029776077557977</v>
+        <v>0.1471498747521202</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H24">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I24">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J24">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.158013666666666</v>
+        <v>5.303883333333334</v>
       </c>
       <c r="N24">
-        <v>12.474041</v>
+        <v>15.91165</v>
       </c>
       <c r="O24">
-        <v>0.1211052553148931</v>
+        <v>0.1972709862305183</v>
       </c>
       <c r="P24">
-        <v>0.1253775082857033</v>
+        <v>0.205820416908307</v>
       </c>
       <c r="Q24">
-        <v>12.54149091169611</v>
+        <v>27.28626803065</v>
       </c>
       <c r="R24">
-        <v>112.873418205265</v>
+        <v>245.57641227585</v>
       </c>
       <c r="S24">
-        <v>0.04499473811893812</v>
+        <v>0.0841189674388018</v>
       </c>
       <c r="T24">
-        <v>0.04859132669215861</v>
+        <v>0.08856944128330187</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H25">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I25">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J25">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.509793</v>
+        <v>3.3504315</v>
       </c>
       <c r="N25">
-        <v>7.019585999999999</v>
+        <v>6.700863</v>
       </c>
       <c r="O25">
-        <v>0.1022253439845415</v>
+        <v>0.1246149066192622</v>
       </c>
       <c r="P25">
-        <v>0.07055437783771969</v>
+        <v>0.08667702069272822</v>
       </c>
       <c r="Q25">
-        <v>10.586313692115</v>
+        <v>17.2365729375645</v>
       </c>
       <c r="R25">
-        <v>63.51788215268999</v>
+        <v>103.419437625387</v>
       </c>
       <c r="S25">
-        <v>0.03798020630684527</v>
+        <v>0.05313745053236512</v>
       </c>
       <c r="T25">
-        <v>0.02734406569368361</v>
+        <v>0.03729919222870978</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H26">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I26">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J26">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.502415666666667</v>
+        <v>5.055779666666667</v>
       </c>
       <c r="N26">
-        <v>16.507247</v>
+        <v>15.167339</v>
       </c>
       <c r="O26">
-        <v>0.1602619682331494</v>
+        <v>0.1880430956577478</v>
       </c>
       <c r="P26">
-        <v>0.1659155599630185</v>
+        <v>0.1961926033044734</v>
       </c>
       <c r="Q26">
-        <v>16.59650535280611</v>
+        <v>26.009878124879</v>
       </c>
       <c r="R26">
-        <v>149.368548175255</v>
+        <v>234.088903123911</v>
       </c>
       <c r="S26">
-        <v>0.05954279417789528</v>
+        <v>0.0801840723918807</v>
       </c>
       <c r="T26">
-        <v>0.06430226033128759</v>
+        <v>0.08442636313546581</v>
       </c>
     </row>
   </sheetData>
